--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/26_Diyarbakır_2009.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2009/26_Diyarbakır_2009.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2009\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8213717-129D-4200-A5FB-B472DF5FEF88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9343FC6D-44D7-44C6-A04C-92C6F12D7BEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D4E00144-A6FA-468A-857F-0C5CD4EB6969}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08C23A5B-4AA3-4472-8C99-7C6AEDAC9954}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="25" r:id="rId1"/>
@@ -833,10 +833,10 @@
   <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{045B1CBC-3284-4267-81B9-FE3B3B5E9D21}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0627B3DB-AD05-47A2-9A1D-BFC208F37737}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{AF5DE7A5-AA58-41FA-8889-3BAF2762F9D8}"/>
-    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{9192E4F1-4BC9-4DBD-8DDF-1AA321115971}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="2" xr:uid="{CEA97B33-B7B5-436D-9518-B11E6B4F80F3}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="3" xr:uid="{0B2E3BF0-6027-4021-AED7-FA3B9475B58A}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="4" xr:uid="{752E88D8-F31D-4448-B620-9927EF0E86CB}"/>
+    <cellStyle name="Virgül_29dan32ye" xfId="5" xr:uid="{7EE0EA3F-2A58-41FB-B574-3AB8C0EB4CC1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1234,7 +1234,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41E5E0AB-4F89-4288-8194-21AC044DFBAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{295FD65E-8E37-40D7-8302-FA1971552EC9}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2467,18 +2467,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{5FAD537B-5335-476E-90E5-60EB08E8C25F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{99A45F08-094C-4F7F-9577-5D04B3333747}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F4A628AA-6873-4096-8372-F5AEB2ECAA07}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{1C4F236E-09CE-4C36-ADF9-59CAE49BD933}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{74B5D96D-0D82-4788-81A2-A6D6F42BEDD7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A2F41DA9-2091-4859-B99A-2723F82A9034}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C68903A8-C3F1-4407-B951-6C3CAAB9CF54}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AAF96056-1AE6-44D8-A893-6EA1C255D347}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{033791B8-F02E-4900-A7A5-E00FEB97A7F3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{7067CB9B-884D-4E65-965A-89E136CC6254}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A2BDBCF6-EFD8-48E4-B3E1-79411373870D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{10CEBFA0-0AA1-4C92-A91F-BAA49340AFBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E725C321-0605-46E2-99CF-D54AC5E99CA6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{DD4C472F-5A14-4240-BF00-C6978C0A4608}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6B887E53-5AB1-42A9-9452-C4837C239DDE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80AC1E6A-57C4-4210-BA7F-478C3D7E2643}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{46739AD4-E8FF-461A-A859-F5E4A18A4918}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{12040D59-DFF3-4CC5-81D0-0FD3C5C27451}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{28427D44-64AC-47C9-9E67-16DC5F4A8365}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1945EC05-07F7-4572-B906-0BFCB8750B59}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{27D94F83-1554-4829-B4F3-512CCE5C8879}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{87D0CCE3-CC0E-4720-AAFF-4BDB5DD08DC7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{59D50FE4-CD8B-4B95-9DFD-4324CAE49EF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{A00D65A7-44D0-469E-88E9-D5E58B8E89EE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2491,7 +2491,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FE6BFCF-177B-4906-9454-85374910663C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BF11946-E9ED-4B1F-94BC-0A0111EA3499}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3688,18 +3688,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2282BF91-A991-45FF-8BD5-F0AC733B633F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{03A51B6C-3A7F-41CD-AFDD-8E0093434EED}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6451D917-B2B4-47B5-A77A-1BC680D9D71A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6E5544FA-8D47-41C1-AD75-D3BFA34AC5F2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{E9C26AB3-6B73-4F9C-B4FF-37B6242932ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{519E2023-C2E9-4D2A-AF75-0C75E8C3C352}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D580521A-18D0-49A7-ACC8-91DDEB4E2DC6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67231DC0-CBB8-4448-8C10-B686159EF3A6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{39062FC1-7A01-4751-A837-D665C370E55C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{98F3B9CF-DCF5-4A93-B600-74308E0536A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DE108042-A12E-45FA-8C5D-3CDC183CF05B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FD7A07B1-DE07-48F6-A0C9-669CDCBE9787}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0AE0557-9F1F-4089-9AD9-11C22F51059E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{B5314EFF-1DB1-4445-BC7B-2223BCCF6EE7}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{6AF6D44D-2BFC-4ED2-B095-0E00866B67D1}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{55C1DDE1-19F6-4D8D-8725-5C146BAC6CFA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{19EC2D3F-7F2B-4468-9CA3-C582DA9CA8F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{29D2E9A4-2EFA-4B05-92E2-1F2491068E2E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FCA9737E-6AD8-4390-9ECF-A2E86F5DA94B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{99D92D2B-FD68-410D-B242-0F822DC7D190}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F7DFC5C9-6FCA-4ACE-A942-24F887629206}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{07638C67-DF27-4998-88CB-75D77EB15340}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{47BA8C55-CE25-46B7-BA77-1B9D708141BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{8890E44A-EB05-49E7-95D7-27FFFD6CA6E6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3712,7 +3712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B406D7-3C32-4356-BF92-348D64E447EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75FE115B-D288-4745-914E-40352737A3AA}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -4905,18 +4905,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{AA94B4B2-A112-443C-9983-6DD403BECEC0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{4A1E1407-A4EF-40AA-BF2D-E024961AD3F6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4936E5B2-6A95-4C52-A997-A059045FA320}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{04D7835C-5D31-471A-8754-69391CACD391}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{479C65C9-3849-43EC-B6EC-D64E76A5B781}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3099E258-DBE6-423A-99FF-EA7C1182663D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{AB005A0E-05D8-4111-AE9F-4FC3B35AC1A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1499A52E-39F1-4B54-8188-D84D4F58BBF7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1D05A53F-F5AC-448D-B688-74214BE67311}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{CE101AE9-9A67-4D3D-A84C-D3BE41E0B68F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{A3B5A081-E0E2-4EB8-B0AE-151E397CBAB7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{43F632BE-D0F4-4F18-8CC0-145106E19182}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{A4DFF8B6-CDB1-44FA-8BAE-204F90F11735}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BB76872A-9900-46E7-AB97-4F18DF7E7DEE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{01DC60FF-504C-4869-9B06-32272F06E954}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{54996A58-44BB-456A-9B5F-F8FC9F4F9433}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{C991F6E7-D412-42A9-8A10-303DFC88CC20}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{5DACCA24-BC08-48BF-8C36-84773B2940DA}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{B8E168C2-48F0-42A5-8AAE-DB7C8A67A992}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0888DE66-43A9-4028-8EE5-3BDE7503A510}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{4804D2F1-62E3-4FFB-ABD2-2FC2801AFC9E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{D8B5E589-C0CB-421E-9372-C3C2C5138CD3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B6DE60C4-101E-4D18-9107-EC35539224FF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{CCA8AB13-4865-4CDD-8434-B8EAD2A0F2E5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -4929,7 +4929,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EBB90AB-923B-4652-A9A8-43D73E4440AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCCE59FB-476E-42B6-88E4-D157A8FCF82D}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -6106,18 +6106,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D3971656-6649-458C-BC6A-2DB863CAF4B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{2C49D352-82B5-4F2A-A1E7-61293D083720}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F2482115-EAEE-42D0-84EB-4955B668760C}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D12A104E-B51A-4A61-8D27-228C148EF3E9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{785F3AB2-1344-41C3-83AF-ACAB7250DA79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{737693F9-1731-48C1-884C-FC0885EA26F9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{D0F216C6-C1CD-4C6E-8634-E03E95D755ED}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{71E47E78-4056-4468-BD91-7A39208849D3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{918156A9-88A4-4C4A-9D42-561BB44B42E4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{86B4DF77-4638-4275-A0EC-BFD49A290392}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{0E72A54C-5C13-435B-A24E-408BC1F6AEE4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7BE95DF8-5EA8-43E7-96B6-CB3D1D766F7E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{6F52F0E7-D18D-45E1-B793-F3FF17673F2D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{1F885777-F710-4BF0-AA0F-53021AC108BD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{2DEA1473-9A1A-49C2-B94F-2BA382F26382}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{0009FF54-6277-4945-921E-EB6755F33676}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{BA2F9D3B-841F-42F7-96E1-EB227147477B}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{53A15E01-F538-463A-801D-23A1C2B1D72D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C1A3BC93-DCB4-4F55-98D0-315F4DBBE286}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{0CAD1F4C-FD7B-4B44-93D4-9061CA3D42ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{20FC70B5-7BDF-465A-A196-D3C624849229}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{FC50C61F-E0D9-45E1-A125-40CE7D7129CF}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{DA4BF68C-DC43-4DF3-8470-E61DE51AC5B6}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5E79C7A2-F723-4C36-A6BE-57856FAA6810}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6130,7 +6130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7BC0A76-BE5B-4B10-9770-7A78D75EB672}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B11F6871-FBC7-4F76-9DE1-247D7DD6CAE7}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -7369,18 +7369,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{558591AA-8099-44A7-ABE9-56DDFCCF47AE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{AD27F635-DC96-4380-8B4F-47F3E7EBF50F}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E239177D-D7F2-412B-A660-5F956CAAEC88}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{625D6841-5127-4DF5-BC7F-9BE692E5FB5E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{9C08E825-A03A-473C-92C1-E11170D6AA31}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{F3CF6F28-BCBC-4CFC-BC67-626050326A04}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{19B249CC-0C4C-4A66-94CF-5E46C47FE116}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6F64FB0E-A3AE-4519-A435-4A3BB2D15C47}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{9F6A8900-B94F-44D7-BA28-F224B4D31F50}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2D465403-C952-45EF-AE1A-04EA03ED94E4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{889F9FAB-62BB-44EB-9E10-5714E07912AB}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{831EA5F7-4694-409F-8A63-BDFA1EE219AC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1A49B00A-D65B-47BF-B538-BCD4F4A96F12}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{10D61867-97C4-4D47-8DE2-D4C6A7A74504}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{34D5AED2-9819-497A-8B3D-DBA8E14390FE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{80D6C850-4410-4B18-B71C-01A2C0C539BE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C7E8B86-979B-4886-8779-CA9C91641A3E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A87F9C3C-C0F6-4A26-B22E-6639D34D6B04}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{8CD75CD9-BC9F-451C-A232-D61B03BA2870}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1FD78564-8A62-46AD-8DEA-A9CE37C7A268}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8498C092-E3E8-47FD-8F57-A0ECB13EC805}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{BE9C7250-F683-4521-AB43-36C8C3FFC0A5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{AC546B3F-E99E-4AF3-8933-9C9F579ACF17}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{6C63BA7B-6B7D-49E5-B1B5-C92EFA51717C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7393,7 +7393,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E01FBD3-8A0D-45D5-821D-2BAC965DE9E5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EAB02707-D63B-4311-94E8-8651B62D9D36}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -8630,18 +8630,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{1B03B31A-01C3-4974-BE60-B673951CE4D3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F04BA663-C6B2-46C3-873C-0C070BAEEA64}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F758AA04-742E-445D-BB77-32D326D82843}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D219A7CE-40F5-4C2B-A252-357134270AE1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{8C37AD65-611F-49BA-9479-43DED9932150}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{FCAD47B1-F858-4661-92E8-FA4695AD08FF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{CAF21D5F-75EB-466C-9887-2CF7659A1AD1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FC4B9507-F054-471F-A66D-658AC733B70C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{847E5DFE-F5FE-484F-A390-E6127D605B9E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{80ECA2C4-C631-476F-AA61-CC752A679BF4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{528E2D59-B507-4C71-B856-C9A01EDAAF32}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{F36B2F79-A2CF-414E-B8E7-4369CB1517D8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{E591DDD0-B521-49AE-8927-76CAEF204CBA}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3A913FA1-4A4F-4B69-BB38-99D52E52C02E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{F93E9990-DDC8-48A8-844F-22B13BF22E71}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6E4185AD-108D-452F-8686-924029CDC1D9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3D6909A2-CFB3-440A-A39F-71B2F6DA35F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{066E58EC-CB98-49E2-A5CF-B70841442637}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{FFBB3E7A-F2F1-4E2F-A561-CF33AD4D957C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{67FBD85C-F37C-40BE-A897-9A5D58230257}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{8282C700-318E-4DC4-BEF0-75F200C51A0C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{5A816A6C-ABED-4439-92DE-F32E8382B0C9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{8672F4B7-EC26-4504-8254-0EC51E275EC3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{56BAFF02-93A7-4A0E-B080-0E7FBE773EAE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8654,7 +8654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0463413-FA4D-41DC-B70B-4AE0E97B8387}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6B77686-4ED2-4C32-ABC2-E6552AD02A82}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -9887,18 +9887,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{EF0A8D1A-BC2F-4AB3-BAA7-26FC0B400F18}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{CC624851-2285-40E7-8F55-EE288C7A47C4}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{E6CD0150-2515-45FF-96D9-4B04AD4061A8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{24326E25-3C96-435B-A8D4-5E21E329500C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{AD106948-76DD-4AD1-BD23-7CFEBB93F1D3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{23F3FD11-41A6-426D-BB02-5189F1846ADE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{228219C1-10BD-46D7-AA8B-628905E4DD34}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{5D6E2CFE-3868-4727-831B-B7C04CA201D1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{5140E9FD-1901-4E37-B819-DE264AEF44E8}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{289B6B3D-358D-43AD-A6E3-A54177967F0D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B31C0240-2553-44EB-9CF3-E61F60658759}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{1DB28EA4-A41D-4A2B-BED4-D7F3A4647F22}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C437844D-2DB6-4A7D-A1F1-31B6B7F768AE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{BA64BFA1-043D-40DF-BB5C-AE05A264A2AA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C8E63D54-9054-4862-A297-17F881B48600}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{173C1FC5-203E-498F-903A-B42EA1A8D63D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{3D5443C5-1066-4154-B8C9-F76E1D3CCD5F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{3BEF45AF-3289-4FC7-96D2-D54DEA0C99DF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{76A3815C-04AD-40E2-AE40-6B69BB7ACF91}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{6DDBB0EA-E8C7-433C-BDA0-981CE28CF650}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{B322D1F8-16A7-46CE-AA43-DAFDB9D3C3F3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{1641F9FE-AED9-42B8-AAFB-943700D66946}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{F0448ED7-0718-4C1A-8639-DB760D054D8B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{5D902247-335F-43DF-9E8D-537B48BF9BBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9911,7 +9911,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85BE13F8-A142-46B0-827A-9127665FBB90}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20074446-6122-45AA-9E4E-2FBD2C584E34}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11140,18 +11140,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{404E55DF-7332-4E05-A604-56C21F25B57C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{641F9F68-5253-4CB8-BE00-2394B126E102}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{D9266DF6-C93C-40E4-B2FC-5EAF5BBD6746}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{A48E0238-AEB2-477A-BA2A-8606EE66AA08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{81B592DC-9477-4E44-8C1C-007370FCAB2A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1EAD602D-1BFA-457E-8475-4BAA01785B00}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1B0F8174-2813-4441-923E-3AC29746F43B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{114AB99F-B20B-4C30-B95D-6C6A4AFBC85A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1863942E-6BB7-4063-A568-077905D46455}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3A4A0EB1-DAB1-4419-A4AA-8C27A11D358B}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{9D0E209E-90EC-4017-A9A3-D144EF827BA3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{69A57555-B8FB-4F9C-BEE8-0983B62D0EC5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{67682B9B-D8A6-4F66-AE47-81FF92F783E4}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{3A5AD74B-C58D-4150-B636-531C4BF410E3}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{97390023-E442-4CBF-B9B2-34778DF1BE1C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{91C3A804-F1E9-4163-A60A-B96380248BDE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{03BF9FDC-C67D-4420-AE23-27CC2F075765}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{1C2580D2-9507-4E80-BC67-E18679D6D585}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{778E84AC-DBC6-4992-B034-24633C266F0A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{40BC9E89-85CA-4E88-9037-2BADBF16B9A4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{22855035-BEE7-41FA-9AD3-FE7157755F5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{988ABB3A-EE8B-421B-AC45-A16A67D2A78E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{D8339DBC-F3D5-42D6-8173-693954E8FF33}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{74DC171F-A66B-4CFF-BBC9-91E8DC23BF52}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11164,7 +11164,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{638835F5-E335-4D4D-BFF2-4727D5F2496A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33D66C41-9EB7-4D35-A07C-D93B2486544B}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12389,18 +12389,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D5B39E26-234D-46CF-88C1-10F4DEE965B6}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{37875BBA-8CAE-49F1-998C-D24753951DCD}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{0625E3BC-480D-4CAC-B7A5-764096D1DBBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{DC99ADED-BF9F-4CD1-81FE-B8C6EDB68FEE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{82215E55-E10B-443D-9F57-6EF9158B1874}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{0C049130-B24B-4EEC-9B96-34DF1C2DBAEF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{C97051F3-D0E3-48EA-82EC-0153709B612B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{620B7532-1398-4A92-9C9A-972C40046C82}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{170DD4D1-B62E-4867-A009-977AFFD2D72E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{3BB270EA-E0A8-4120-9C8C-3F4C5F7BD154}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2E84858E-2E14-44F2-B178-63DC80B1DD9A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7219226E-30C3-4A44-8DD4-C55D78AEF4DD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2EF83A29-A0FC-4CCA-AF2A-91177D752C3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{EBA34156-506D-46D8-A75E-52037837D066}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{CD9E91EE-42B9-4C7A-9485-DDA5457B3E9B}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{304A9825-A970-4FF2-AF8C-EE84CAEDDEEA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F9F791EC-4568-42A2-BC00-8E606B1AB795}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{CC61688F-AD5A-42A3-9638-24E641073197}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{717B6606-AF01-4265-810A-5DF474C65BB0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{F5340FE3-B110-4FA6-B240-DA0734C62092}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{F4304C03-554A-4E7E-AE89-D8788291508A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{A0206D4B-78C4-4302-B03D-00EB3FF8AE29}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{B9B2BD7B-A437-4CFB-9EFF-3F09DF8DF734}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{07DD7FA5-06D5-424A-8E63-1BBC32601014}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12413,7 +12413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B721EAC-7806-4B23-8F41-AE44299018E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69AD6ADC-EC92-4F9E-94D9-DAC0DDC02B14}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -13630,18 +13630,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{D0F77075-0A6F-49C2-94E3-DFB60E56E933}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{C8EF7B28-986D-4A90-AE4D-DDA098E7F659}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{EF317E1A-4138-4C89-BD5F-501EDE82BC6E}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{36F792C6-302C-482B-97B6-B982881E8E17}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{43F3C8B4-4018-423E-8FAE-E6EB826166BE}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A7680B98-A625-4947-B56B-2A070EBE5E5E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{0E5CFCDC-41DF-45B3-BF79-0A35CB794A00}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{AF0F3F9B-DBA9-43E2-8ECC-1923138AAEDD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{D7F2AF48-50C3-4F9A-BF12-DFDD889648BA}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{E191C3FB-142D-4949-A6AD-96CE4C61E761}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{2DD72BF6-FEC0-4211-9148-F7FD07356563}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{FAA19C66-0646-48DA-AC12-943290DDCD67}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{FF997EEA-7C60-4695-A486-C7F85D9E773E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{0D5676A8-6360-40BD-98E9-C0373260F390}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{54D68448-B3D4-401F-BFDD-EBA04D6B9E21}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{D591B4DA-50CA-4CBD-A164-6F4533A9273C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{DB736D42-2CBF-4CEC-A649-4F4627FC8822}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{10FAA404-FAF6-4972-85CF-1CE8D7095EE4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{3C686633-D8C0-45B4-83A1-E08B06009161}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{1680C61B-6672-4D04-8E74-0FEB9481BB1B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{23FFF1E1-EB27-48F8-B7BA-979F7032A36F}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{EBEC5A93-A405-4910-8207-F483E30A87CE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{55BEA247-30F7-472E-98B8-C3FD318C2502}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{EC685B11-E510-4C7E-87D0-F1933609C63C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13654,7 +13654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F210929-D420-4254-8380-5B1A40354ECE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B6D7A4D-D5F0-4441-B180-40509E6D2B11}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -14871,18 +14871,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{C37CF917-9C91-4F81-A4A2-48B712D43ADA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{F5AAF050-14E1-4BCF-811D-F426C4F20593}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{86EA7104-DE2E-44CF-9095-C3BC4F84C5DF}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{6CB0BBFE-9DD9-4BC9-BC3E-66B108A8D959}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{120E2AD0-4787-4353-B3CC-4A107852C35A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{9A0C6887-12CB-45CE-A99D-5485E1482852}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{1F96F395-7820-4539-AC65-1737F77F4DE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{497E6807-19AD-4860-A028-054A853D0068}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{E7242460-851F-4B70-BF30-166562AD774F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{F3BA731D-2AB4-4FB6-84C2-31FDFF1606A9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{64DCE459-163E-4082-9EA6-324F79F657BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{7DB37162-A892-404D-8F63-7ECD2DE707DE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{2355B6F3-EA09-4844-A04A-01B3FB83E41B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{ACE875D8-28BA-4193-9219-9B58AC3A83C9}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{C08138B5-C248-4768-9724-DF58CCCC1C57}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{928B7D8E-95B6-4975-9ECA-FA679D3BF6D1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{75735C0A-BFA4-41F5-98C5-21E29231C874}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{7E564A99-B56D-40A9-85DF-148E2AFCF27F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{6A5FEACD-D2ED-47EB-B00E-39F9C89BE68B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{C7A4236F-8CE4-496F-8970-CD7714A4BABF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{1CED335C-788E-43E2-B2ED-3CA8F0DAD2E0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{C665EE85-9CBD-449E-8C76-4F13F4CA206D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3520D4F7-FBA1-4D7D-86E2-556EAE00FF13}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{0CEBA00C-10E6-4D8C-98D9-2E8AFC3819DD}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14895,7 +14895,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{225A2EE6-7BD0-44E4-ADD9-372C4E48CE9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECB821B-9917-4DEB-A56B-83BBB6B381E4}">
   <dimension ref="B1:F98"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -16112,18 +16112,18 @@
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{572F5E36-99A8-4348-96A5-F84D094AAB96}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{9B416D58-CB46-4453-A9A2-787D0E4AA3FF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{4CF4AA77-F2E7-40D5-8DD7-DBAB972ED76B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{565049AB-56A3-487F-9BE8-D99B24266566}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{89AF5C33-81FD-41A5-84BB-DE4403CE74D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{A5CEDF76-A03F-4281-AC97-A56528CC380C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{815F296D-F1BB-4377-88D1-14F10482176D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{FD24D141-C082-405E-B7EB-B24379693512}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{A69B361B-F283-40D4-B5B5-9A93683B1006}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{50F824D6-AAF0-446F-AC0F-24C8D20A89C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{BBA3E810-FA00-4DE1-8001-D613EC823936}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{AC354692-CBDD-4EB3-A122-248397D1B92C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="Ocak" xr:uid="{188DF5FF-2010-446C-9568-15523DB0BF3C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="Şubat" xr:uid="{85174378-022F-406F-BDE7-98BEBFBE399E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="Mart" xr:uid="{ED46BEE9-3822-4E97-833B-D389A063E0CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="Nisan" xr:uid="{E86C9FA5-B2EE-4956-9279-5E1257070D77}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="Mayıs" xr:uid="{F1E965BE-9EA4-4545-8745-AFC924C4BA1C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="Haziran" xr:uid="{8393A0E4-55ED-4F7C-B822-460C5C35F6BE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="Temmuz" xr:uid="{4F9A3766-1E99-416C-B09F-0DA07C700F8E}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="Ağustos" xr:uid="{488DBD46-33AA-4813-9BE0-972340C6908A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="Eylül" xr:uid="{DA40AC4E-8EF5-4CA7-9DA0-03E5678F5295}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="Ekim" xr:uid="{2AC3CE95-CD84-46F8-A7B5-5D88125EFB7B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="Kasım" xr:uid="{3DBB20D8-9E29-4F10-B5DD-606921E51A64}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="Aralık" xr:uid="{86B1DEF3-3569-4079-9E4A-323EEF20005B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
